--- a/Data_science_outputs/800pop/avg_analysis/avg_analysis_3.xlsx
+++ b/Data_science_outputs/800pop/avg_analysis/avg_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21299.74253819636</v>
+        <v>15716.53094379187</v>
       </c>
       <c r="C3" t="n">
         <v>12767.12389007939</v>
       </c>
       <c r="D3" t="n">
-        <v>6369.770408660575</v>
+        <v>781.2597083866054</v>
       </c>
       <c r="E3" t="n">
         <v>2180.38102370053</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7304.916656008633</v>
+        <v>6562.794511211719</v>
       </c>
       <c r="C4" t="n">
         <v>6171.05144132002</v>
       </c>
       <c r="D4" t="n">
-        <v>5726.136336796461</v>
+        <v>343.2988852644162</v>
       </c>
       <c r="E4" t="n">
         <v>836.4688666753224</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5252.786219178085</v>
+        <v>5271.149254794524</v>
       </c>
       <c r="C5" t="n">
         <v>3551.727</v>
       </c>
       <c r="D5" t="n">
-        <v>154.1381972602734</v>
+        <v>120.0064657534245</v>
       </c>
       <c r="E5" t="n">
         <v>765.2311917808199</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13771.85708150685</v>
+        <v>10780.78928356164</v>
       </c>
       <c r="C6" t="n">
         <v>8200.751321428572</v>
       </c>
       <c r="D6" t="n">
-        <v>485.4972068493133</v>
+        <v>443.5438390410952</v>
       </c>
       <c r="E6" t="n">
         <v>1390.902782876709</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22419.94356712328</v>
+        <v>13590.63691506851</v>
       </c>
       <c r="C7" t="n">
         <v>10305.01735714286</v>
       </c>
       <c r="D7" t="n">
-        <v>6322.30834520548</v>
+        <v>869.8767726027395</v>
       </c>
       <c r="E7" t="n">
         <v>2203.338426027396</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26259.36014863021</v>
+        <v>21807.62013013706</v>
       </c>
       <c r="C8" t="n">
         <v>18283.01796428579</v>
       </c>
       <c r="D8" t="n">
-        <v>12553.86302465754</v>
+        <v>1114.383575342466</v>
       </c>
       <c r="E8" t="n">
         <v>2857.800796575345</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33465.0493671234</v>
+        <v>29081.56297260281</v>
       </c>
       <c r="C9" t="n">
         <v>26697.9108571429</v>
       </c>
       <c r="D9" t="n">
-        <v>12617.47945479452</v>
+        <v>1175.328772602739</v>
       </c>
       <c r="E9" t="n">
         <v>4081.031134246573</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>30671629.25500277</v>
+        <v>22631804.55906031</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>18384658.40171432</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5985795876627001</v>
+        <v>0.8115588775488014</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>9172469.388471235</v>
+        <v>1125013.980076712</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2990538687140377</v>
+        <v>0.04970942450218045</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>3139748.674128766</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1023665436232622</v>
+        <v>0.1387316979490181</v>
       </c>
     </row>
   </sheetData>
